--- a/NCAA_teams.xlsx
+++ b/NCAA_teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/Volleyball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_93D95FC38F79A8D366075C52F37BD2723A4715B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD78529-4D84-49E3-ADD2-689383843AAA}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_93D95FC38F79A8D366075C52F37BD2723A4715B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A603BE2-B24B-451A-B3BF-EA38BF1ED147}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Conference</t>
   </si>
   <si>
-    <t>Conference.x</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -46,27 +43,18 @@
     <t>Penn St.</t>
   </si>
   <si>
-    <t>EIVA</t>
-  </si>
-  <si>
     <t>Big Ten</t>
   </si>
   <si>
     <t>Ball St.</t>
   </si>
   <si>
-    <t>MIVA</t>
-  </si>
-  <si>
     <t>MAC</t>
   </si>
   <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>MPSF</t>
-  </si>
-  <si>
     <t>Pac-12</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>Lincoln Memorial</t>
   </si>
   <si>
-    <t>DI Independent</t>
-  </si>
-  <si>
     <t>Lewis</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
     <t>North Greenville</t>
   </si>
   <si>
-    <t>Conference Carolinas</t>
-  </si>
-  <si>
     <t>Mount Olive</t>
   </si>
   <si>
@@ -221,9 +203,6 @@
   </si>
   <si>
     <t>Central St. (OH)</t>
-  </si>
-  <si>
-    <t>SIAC</t>
   </si>
   <si>
     <t>Barton</t>
@@ -640,21 +619,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -665,847 +644,682 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="D7">
         <v>657</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="D8">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="D10">
         <v>1176</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="D11">
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="D12">
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="D13">
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="D14">
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="D15">
         <v>30138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="D16">
         <v>1104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="D17">
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="D18">
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="D19">
         <v>9223</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="D20">
         <v>1245</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22">
+        <v>33</v>
+      </c>
+      <c r="D22">
         <v>30051</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="D23">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="D24">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="D25">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="D26">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="D27">
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28">
+        <v>41</v>
+      </c>
+      <c r="D28">
         <v>11504</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="D29">
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30">
+        <v>44</v>
+      </c>
+      <c r="D30">
         <v>30136</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="D31">
         <v>1013</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="D32">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33">
+        <v>47</v>
+      </c>
+      <c r="D33">
         <v>30193</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34">
+        <v>48</v>
+      </c>
+      <c r="D34">
         <v>1174</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35">
+        <v>49</v>
+      </c>
+      <c r="D35">
         <v>30174</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="D36">
         <v>30199</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37">
+        <v>51</v>
+      </c>
+      <c r="D37">
         <v>2683</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="D38">
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39">
+        <v>53</v>
+      </c>
+      <c r="D39">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40">
+        <v>54</v>
+      </c>
+      <c r="D40">
         <v>561</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41">
+        <v>55</v>
+      </c>
+      <c r="D41">
         <v>1072</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42">
+        <v>56</v>
+      </c>
+      <c r="D42">
         <v>12830</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43">
+        <v>37</v>
+      </c>
+      <c r="D43">
         <v>590</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="D44">
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45">
+        <v>59</v>
+      </c>
+      <c r="D45">
         <v>13302</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46">
+        <v>60</v>
+      </c>
+      <c r="D46">
         <v>30049</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47">
+        <v>61</v>
+      </c>
+      <c r="D47">
         <v>15646</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48">
+        <v>37</v>
+      </c>
+      <c r="D48">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49">
+        <v>63</v>
+      </c>
+      <c r="D49">
         <v>1059</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50">
+        <v>64</v>
+      </c>
+      <c r="D50">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51">
+        <v>65</v>
+      </c>
+      <c r="D51">
         <v>934</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52">
+        <v>66</v>
+      </c>
+      <c r="D52">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53">
+        <v>67</v>
+      </c>
+      <c r="D53">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54">
+        <v>68</v>
+      </c>
+      <c r="D54">
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55">
+        <v>69</v>
+      </c>
+      <c r="D55">
         <v>445</v>
       </c>
     </row>
